--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462456.1509486051</v>
+        <v>393296.3414124859</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430052.9979393117</v>
+        <v>337002.2430554239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12067207.45009627</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8042865.68897362</v>
+        <v>8574109.934192413</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>155.5825568932142</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>149.3895849832727</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,52 +1056,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>72.41858166560493</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>146.1753613169449</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023554</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023554</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>173.3217671684648</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>325.239946071737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>161.4151008513904</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>224.7502551838231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>276.1565137023554</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="W14" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>38.48875867123497</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6773952840984085</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -1903,16 +1903,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>43.64964594839171</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>298.1689170259752</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>25.2529242564392</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>207.2254923650025</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>362.2176314434688</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>166.687349128989</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>141.3865903334045</v>
       </c>
       <c r="H22" t="n">
-        <v>59.66385641544514</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.37358889224438</v>
+        <v>153.5271835984415</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.020123643055524</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>60.77270032618439</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
@@ -2718,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="W28" t="n">
-        <v>172.0367732907332</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>159.3541018612971</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>168.1654598367684</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>248.2495071498754</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>134.2976746143613</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>206.0978190620147</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>215.3412373755625</v>
+        <v>132.3879643982078</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>115.9118647420297</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>225.4603876057575</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>57.70416378283653</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>134.8122206876834</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.5761525223402</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3760,7 +3760,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>50.05665370612845</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>26.26583888007722</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>203.2426542857844</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>47.40419526769212</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4415,40 +4415,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>705.7335281915883</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>705.7335281915883</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>470.5814199598456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4515,25 +4515,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>718.7806050553886</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4658,40 +4658,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>813.1585848204618</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>813.1585848204618</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>813.1585848204618</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895962</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>251.6686806061783</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4895,40 +4895,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>816.40527539251</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W9" t="n">
-        <v>627.7355178317791</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X9" t="n">
-        <v>419.8840176262463</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y9" t="n">
-        <v>419.8840176262463</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="10">
@@ -4986,25 +4986,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>787.1037832399832</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C11" t="n">
-        <v>787.1037832399832</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D11" t="n">
-        <v>787.1037832399832</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E11" t="n">
-        <v>787.1037832399832</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F11" t="n">
-        <v>787.1037832399832</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>508.1578098032604</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2118363665377</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618843</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823541</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>962.1762753293416</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>787.1037832399832</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>787.1037832399832</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>787.1037832399832</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>787.1037832399832</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>787.1037832399832</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X11" t="n">
-        <v>787.1037832399832</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="Y11" t="n">
-        <v>787.1037832399832</v>
+        <v>1157.367208492925</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618843</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618843</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618843</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318534</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>165.799003153448</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>367.8501726635176</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288495</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121333</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>941.5804983938758</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>739.7005984219851</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>511.4819860561328</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>276.3298778243901</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>22.09252109618843</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>22.09252109618843</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.09252109618843</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618843</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492713</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09252109618843</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618843</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618843</v>
+        <v>501.108524424795</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618843</v>
+        <v>501.108524424795</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618843</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.0384945329111</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0384945329111</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D14" t="n">
-        <v>301.0384945329111</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>301.0384945329111</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>301.0384945329111</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>301.0384945329111</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618843</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823541</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901062</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>1104.626054809422</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809422</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809422</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W14" t="n">
-        <v>858.9304414063565</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X14" t="n">
-        <v>579.9844679696338</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0384945329111</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>199.6247908789907</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>199.6247908789907</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>199.6247908789907</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>199.6247908789907</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>199.6247908789907</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>60.97005510753689</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618843</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>28.39914141318534</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>165.799003153448</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>165.799003153448</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1939517187798</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>562.3310704112776</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945614</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>1104.626054809422</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
-        <v>1104.626054809422</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>869.473946577679</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>615.2365898494775</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>407.3850896439446</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
-        <v>199.6247908789907</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618843</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492713</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160686</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754622</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.3084793424303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>22.09252109618843</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09252109618843</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618843</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>618.3948626148824</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C17" t="n">
-        <v>618.3948626148824</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D17" t="n">
-        <v>618.3948626148824</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>618.3948626148824</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
@@ -5545,22 +5545,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>1949.455910010018</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="X17" t="n">
-        <v>1008.534194590694</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y17" t="n">
-        <v>618.3948626148824</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
         <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5615,7 +5615,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>337.1618402196266</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C19" t="n">
-        <v>337.1618402196266</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D19" t="n">
-        <v>337.1618402196266</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E19" t="n">
-        <v>337.1618402196266</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064346</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064346</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="V19" t="n">
-        <v>518.8103050498663</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="W19" t="n">
-        <v>518.8103050498663</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="X19" t="n">
-        <v>518.8103050498663</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="Y19" t="n">
-        <v>518.8103050498663</v>
+        <v>702.6209799070007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1336.435086552838</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C20" t="n">
-        <v>967.4725696124262</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D20" t="n">
-        <v>967.4725696124262</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E20" t="n">
-        <v>967.4725696124262</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V20" t="n">
-        <v>2465.942913862886</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W20" t="n">
-        <v>2113.174258592771</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X20" t="n">
-        <v>2113.174258592771</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y20" t="n">
-        <v>1723.03492661696</v>
+        <v>1349.514859931282</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C22" t="n">
-        <v>2697.149091018222</v>
+        <v>196.757719530874</v>
       </c>
       <c r="D22" t="n">
-        <v>2547.032451605887</v>
+        <v>196.757719530874</v>
       </c>
       <c r="E22" t="n">
-        <v>2399.119358023494</v>
+        <v>196.757719530874</v>
       </c>
       <c r="F22" t="n">
-        <v>2252.229410525583</v>
+        <v>196.757719530874</v>
       </c>
       <c r="G22" t="n">
-        <v>2083.229610263916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>534.603677789272</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C23" t="n">
-        <v>534.603677789272</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>991.2778500677821</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y23" t="n">
-        <v>921.2035178533938</v>
+        <v>781.1711973675267</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>698.7120650600564</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>698.7120650600564</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1995.909162857192</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>58.00371277294579</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2580.733835562671</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2326.972050200762</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>1995.909162857192</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>1995.909162857192</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>1995.909162857192</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y26" t="n">
-        <v>1995.909162857192</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6311,19 +6311,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.3544657309461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>554.3544657309461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036445</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W28" t="n">
-        <v>554.3544657309461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>554.3544657309461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>554.3544657309461</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1112.426648284105</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C29" t="n">
-        <v>951.4629090302697</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="D29" t="n">
-        <v>593.1972104235191</v>
+        <v>1090.256031232737</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>704.4677786344926</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>704.4677786344926</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6502,13 +6502,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>1485.892406545185</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X29" t="n">
-        <v>1112.426648284105</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y29" t="n">
-        <v>1112.426648284105</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6551,16 +6551,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6569,16 +6569,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6654,13 +6654,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
         <v>53.94298182036445</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1405.321187657107</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C32" t="n">
-        <v>1036.358670716696</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2131.555601188301</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1778.786945918187</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1405.321187657107</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1405.321187657107</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="V34" t="n">
-        <v>2442.464602812336</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="W34" t="n">
-        <v>2153.047432775375</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1528.349585887293</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C35" t="n">
-        <v>1310.833184497836</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D35" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E35" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6970,19 +6970,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2212.181128500978</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V35" t="n">
-        <v>1881.118241157407</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W35" t="n">
-        <v>1528.349585887293</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X35" t="n">
-        <v>1528.349585887293</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y35" t="n">
-        <v>1528.349585887293</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.0256734789803</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>171.0256734789803</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D37" t="n">
-        <v>171.0256734789803</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E37" t="n">
-        <v>171.0256734789803</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F37" t="n">
-        <v>171.0256734789803</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1135.888471323017</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C38" t="n">
-        <v>766.9259543826058</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D38" t="n">
-        <v>766.9259543826058</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2638.862056894145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2286.093401624031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1912.627643362951</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y38" t="n">
-        <v>1522.488311387139</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C40" t="n">
-        <v>184.0273259635867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>184.0273259635867</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>184.0273259635867</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W40" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X40" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1704.527073573122</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.353113282533</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="D41" t="n">
-        <v>1210.087414675782</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.087414675782</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573122</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.527073573122</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y41" t="n">
-        <v>1704.527073573122</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7520,13 +7520,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.5052582912013</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C43" t="n">
-        <v>104.5052582912013</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D43" t="n">
-        <v>104.5052582912013</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="V43" t="n">
-        <v>325.2978374347314</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2978374347314</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="X43" t="n">
-        <v>325.2978374347314</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.5052582912013</v>
+        <v>701.5978338225178</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1167.455337753612</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C44" t="n">
-        <v>798.4928208132003</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D44" t="n">
-        <v>798.4928208132003</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E44" t="n">
-        <v>412.7045682149561</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>412.7045682149561</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
         <v>207.4089578252748</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.921096014692</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>1167.455337753612</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y44" t="n">
-        <v>1167.455337753612</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8306,7 +8306,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>327.1395372443068</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273547</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>399.2039605324505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>236.1308877972191</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>221.0467526719079</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22609,10 +22609,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>347.4314726443768</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>16.1006142106236</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22804,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>50.77514371154891</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>100.2899173227108</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>53.98936737787668</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194541</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.490073357933</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>44.49115460673204</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>8.868871769942729</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>47.78481791206877</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>61.53161905815466</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>61.87643319194541</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>85.98948845797281</v>
       </c>
       <c r="W14" t="n">
-        <v>106.0023114483785</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>73.01916843220948</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>88.89425643449839</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.19643759900805</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>222.9160118599466</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>227.6757534850358</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3155846423218</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>284.1026125217432</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>71.56218365249384</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>199.7821812016451</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>44.91215095882546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>20.51621022001177</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>240.1886966127225</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>25.92321192564643</v>
       </c>
       <c r="H22" t="n">
-        <v>96.50703242635001</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>316.8643497638092</v>
+        <v>232.7107550576121</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>136.7057146380965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>147.9111926018057</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>155.6756200314734</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24606,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="W28" t="n">
-        <v>114.4862250458578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>205.9187899097105</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>245.6187101840266</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24894,16 +24894,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>117.0233846211322</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>193.4545838557736</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>80.18405517996308</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>149.931654395445</v>
+        <v>232.8849273727997</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.39793751702125</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>129.2226540149255</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25450,13 +25450,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>270.0480946872984</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>38.52630155726084</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>226.5550366661093</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>230.4606710833241</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.2998932193713</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>96.37730894044071</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>198.7692665780071</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>210.5415157350106</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.3269054107769</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26079,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.70869279</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>520354.2281896696</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>520354.2281896696</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="16">
@@ -26322,22 +26322,22 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.4664845208</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>141745.4664845208</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
@@ -26349,13 +26349,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>375583.882423242</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213634</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>95810.56529667106</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>42169.81622231288</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
-        <v>42169.81622231289</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="G4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
         <v>44802.65617556861</v>
@@ -26450,7 +26450,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
         <v>44802.6561755686</v>
@@ -26478,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26502,7 +26502,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38139.58762613964</v>
+        <v>-50357.5982461801</v>
       </c>
       <c r="C6" t="n">
-        <v>42629.84390540809</v>
+        <v>30411.83328536762</v>
       </c>
       <c r="D6" t="n">
-        <v>42629.84390540809</v>
+        <v>30411.83328536765</v>
       </c>
       <c r="E6" t="n">
-        <v>43392.98961619218</v>
+        <v>-301626.6340151873</v>
       </c>
       <c r="F6" t="n">
-        <v>82021.87074542773</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="G6" t="n">
-        <v>-238295.9286496139</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="H6" t="n">
-        <v>137287.9537736281</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="I6" t="n">
-        <v>137287.9537736282</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="J6" t="n">
-        <v>74228.01117452171</v>
+        <v>68159.5974287026</v>
       </c>
       <c r="K6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="L6" t="n">
-        <v>137287.9537736281</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="M6" t="n">
-        <v>128530.3707784144</v>
+        <v>23246.17935375077</v>
       </c>
       <c r="N6" t="n">
-        <v>137287.9537736281</v>
+        <v>131219.540027809</v>
       </c>
       <c r="O6" t="n">
-        <v>41477.38847695691</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="P6" t="n">
-        <v>137287.9537736281</v>
+        <v>131219.5400278088</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>342.7224034979615</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469637</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>398.1307590522003</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815579</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760113</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884597</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>22.217558194707</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7213143567723</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081215</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587037</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847509</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626972</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052018</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727676</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779982</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358772</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650261</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263565</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623698</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522732</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170838</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894673</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948808</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>9.66414560139404</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179675</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938405</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.28821036858792</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83959271339006</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457194</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.140788987815579</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466299</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760113</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461251</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884597</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>22.217558194707</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>24.7213143567723</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840331</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081215</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411504</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796961</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>8.84383625587037</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847509</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626972</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>0.727517133052018</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727676</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779982</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335883</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358772</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192328</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833406</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650261</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164365</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263565</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504675</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497748</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623698</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>1.89918574522732</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174383</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170838</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894673</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948808</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>9.66414560139404</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179675</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938405</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.28821036858792</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>2.83959271339006</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025626</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457194</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503281</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424808</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>204.0920904142118</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023554</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891755</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821095</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062263</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831893</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>121.9644487350302</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503281</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424808</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315784</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1565137023554</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>124.3809279722199</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891755</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821095</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199195</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062263</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421935</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831893</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624592</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36378,7 +36378,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36679,7 +36679,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37165,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37545,7 +37545,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,7 +38104,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393296.3414124859</v>
+        <v>454131.8163241862</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554239</v>
+        <v>337002.2430554241</v>
       </c>
     </row>
     <row r="8">
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X2" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.4162677022923</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>146.1753613169449</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>325.239946071737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.6102910700566</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.17737911999792</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>224.7502551838231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>243.3919495401545</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7627700121621</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>30.4983021091412</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -1903,16 +1903,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>43.64964594839171</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>25.2529242564392</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>362.2176314434688</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>262.4573575443979</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>10.70611463921615</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>141.3865903334045</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>15.8021068989704</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>153.5271835984415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>201.0891638436808</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.020123643055524</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>136.069602391244</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>201.0891638436808</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>168.1654598367684</v>
+        <v>214.5701513550093</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>248.2495071498754</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>133.5078934122521</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>206.0978190620147</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.027508828177</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>132.3879643982078</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.3223107044285</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.8854510154498</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>15.78536437448172</v>
       </c>
       <c r="D38" t="n">
-        <v>225.4603876057575</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="U40" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>201.5761525223402</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>329.3481258237152</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3796,13 +3796,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>62.27914576410206</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>26.26583888007722</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>344.9851721024851</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>47.40419526769212</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>94.63926978364032</v>
+        <v>118.9913269637018</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4357,22 +4357,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W2" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="4">
@@ -4515,10 +4515,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4749,19 +4749,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
         <v>262.7299197543128</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109.5807722530562</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>816.40527539251</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>588.181657128899</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>353.0295488971563</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>109.5807722530562</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X9" t="n">
-        <v>109.5807722530562</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y9" t="n">
-        <v>109.5807722530562</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="10">
@@ -4980,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1157.367208492925</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C11" t="n">
-        <v>1157.367208492925</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D11" t="n">
-        <v>799.1015098861748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>799.1015098861748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V11" t="n">
-        <v>1838.661061815299</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W11" t="n">
-        <v>1485.892406545185</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X11" t="n">
-        <v>1157.367208492925</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y11" t="n">
-        <v>1157.367208492925</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5156,7 +5156,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C13" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D13" t="n">
-        <v>211.6913543878343</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E13" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F13" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>501.108524424795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>501.108524424795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1749.341643278937</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="C14" t="n">
-        <v>1749.341643278937</v>
+        <v>626.9881558653258</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>626.9881558653258</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>626.9881558653258</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,16 +5281,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>1749.341643278937</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W14" t="n">
-        <v>1749.341643278937</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X14" t="n">
-        <v>1749.341643278937</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y14" t="n">
-        <v>1749.341643278937</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5384,22 +5384,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5442,43 +5442,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y16" t="n">
         <v>53.94298182036445</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1210.087414675782</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C17" t="n">
-        <v>1210.087414675782</v>
+        <v>860.9788542957374</v>
       </c>
       <c r="D17" t="n">
-        <v>1210.087414675782</v>
+        <v>502.7131556889869</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>502.7131556889869</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>502.7131556889869</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>84.74934758717376</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>84.74934758717376</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,10 +5533,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
@@ -5545,22 +5545,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V17" t="n">
-        <v>1949.455910010018</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W17" t="n">
-        <v>1596.687254739904</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X17" t="n">
-        <v>1596.687254739904</v>
+        <v>1620.080703211961</v>
       </c>
       <c r="Y17" t="n">
-        <v>1596.687254739904</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T19" t="n">
-        <v>702.6209799070007</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U19" t="n">
-        <v>702.6209799070007</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V19" t="n">
-        <v>702.6209799070007</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="W19" t="n">
-        <v>702.6209799070007</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X19" t="n">
-        <v>702.6209799070007</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>702.6209799070007</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>983.6384645338385</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>983.6384645338385</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>625.3727659270879</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>625.3727659270879</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5755,10 +5755,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1739.654191907093</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X20" t="n">
-        <v>1739.654191907093</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y20" t="n">
-        <v>1349.514859931282</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5834,10 +5834,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M21" t="n">
         <v>1313.210296315296</v>
@@ -5846,10 +5846,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.6939024587809</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C22" t="n">
-        <v>196.757719530874</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D22" t="n">
-        <v>196.757719530874</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>196.757719530874</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>196.757719530874</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>365.6939024587809</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U22" t="n">
-        <v>365.6939024587809</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="V22" t="n">
-        <v>365.6939024587809</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="W22" t="n">
-        <v>365.6939024587809</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="X22" t="n">
-        <v>365.6939024587809</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="Y22" t="n">
-        <v>365.6939024587809</v>
+        <v>211.6471865296043</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>781.1711973675267</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C23" t="n">
-        <v>412.2086804271149</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982757</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y23" t="n">
-        <v>781.1711973675267</v>
+        <v>1970.914677487029</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6065,16 +6065,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6089,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1112.426648284105</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C26" t="n">
-        <v>743.4641313436935</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D26" t="n">
-        <v>385.1984327369429</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E26" t="n">
-        <v>385.1984327369429</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>385.1984327369429</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>385.1984327369429</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>58.00371277294579</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2559.705048198784</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2305.943262836876</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>1974.880375493305</v>
       </c>
       <c r="W26" t="n">
-        <v>1485.892406545185</v>
+        <v>1622.111720223191</v>
       </c>
       <c r="X26" t="n">
-        <v>1112.426648284105</v>
+        <v>1248.645961962111</v>
       </c>
       <c r="Y26" t="n">
-        <v>1112.426648284105</v>
+        <v>858.5066299862995</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1448.521729839487</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="C29" t="n">
-        <v>1448.521729839487</v>
+        <v>1425.720364436188</v>
       </c>
       <c r="D29" t="n">
-        <v>1090.256031232737</v>
+        <v>1067.454665829438</v>
       </c>
       <c r="E29" t="n">
-        <v>704.4677786344926</v>
+        <v>681.6664132311935</v>
       </c>
       <c r="F29" t="n">
-        <v>704.4677786344926</v>
+        <v>270.6805084415859</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W29" t="n">
-        <v>1838.661061815299</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X29" t="n">
-        <v>1838.661061815299</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y29" t="n">
-        <v>1448.521729839487</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247703</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C32" t="n">
-        <v>1241.158393318536</v>
+        <v>958.0510432088963</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>599.7853446021459</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
@@ -6800,10 +6800,10 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6867,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>519.9493689922781</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X34" t="n">
-        <v>519.9493689922781</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y34" t="n">
-        <v>519.9493689922781</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1528.349585887292</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C35" t="n">
-        <v>1394.624369323446</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="D35" t="n">
-        <v>1036.358670716696</v>
+        <v>1132.713210574844</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>1132.713210574844</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>721.7273057852367</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>303.7634976834236</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6976,13 +6976,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W35" t="n">
-        <v>1528.349585887292</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X35" t="n">
-        <v>1528.349585887292</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y35" t="n">
-        <v>1528.349585887292</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785273</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D37" t="n">
-        <v>409.0761618661916</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7131,16 +7131,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.381229508782</v>
+        <v>1231.905553626649</v>
       </c>
       <c r="C38" t="n">
-        <v>1496.41871256837</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X38" t="n">
-        <v>2642.120401548716</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.981069572904</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U40" t="n">
-        <v>667.7988452409105</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V40" t="n">
-        <v>667.7988452409105</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W40" t="n">
-        <v>667.7988452409105</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X40" t="n">
-        <v>667.7988452409105</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.7988452409105</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1156.179761166176</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C41" t="n">
-        <v>1156.179761166176</v>
+        <v>898.3495310014346</v>
       </c>
       <c r="D41" t="n">
-        <v>1156.179761166176</v>
+        <v>540.0838323946841</v>
       </c>
       <c r="E41" t="n">
-        <v>1156.179761166176</v>
+        <v>540.0838323946841</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>540.0838323946841</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
         <v>207.4089578252748</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7444,19 +7444,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>1916.245359491378</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W41" t="n">
-        <v>1916.245359491378</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X41" t="n">
-        <v>1542.779601230298</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y41" t="n">
-        <v>1542.779601230298</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7496,19 +7496,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>519.9493689922781</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="C43" t="n">
-        <v>519.9493689922781</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="D43" t="n">
-        <v>369.8327295799424</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
         <v>222.942782082032</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>701.5978338225178</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U43" t="n">
-        <v>701.5978338225178</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V43" t="n">
-        <v>701.5978338225178</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W43" t="n">
-        <v>701.5978338225178</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X43" t="n">
-        <v>701.5978338225178</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y43" t="n">
-        <v>701.5978338225178</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1261.831893336434</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C44" t="n">
-        <v>892.8693763960225</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="D44" t="n">
-        <v>534.603677789272</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="E44" t="n">
-        <v>534.603677789272</v>
+        <v>813.398757420563</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>402.4128526309555</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.831893336434</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y44" t="n">
-        <v>1261.831893336434</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7736,34 +7736,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C46" t="n">
-        <v>149.5382038240415</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="D46" t="n">
-        <v>149.5382038240415</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5382038240415</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="F46" t="n">
-        <v>149.5382038240415</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W46" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X46" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y46" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119834</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22609,13 +22609,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>382.9726225988569</v>
       </c>
     </row>
     <row r="3">
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22755,13 +22755,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.3175739611883</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22880,7 +22880,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>53.98936737787668</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,10 +23162,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>44.49115460673204</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.627647585997</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.43809389821443</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>61.53161905815466</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>163.484096201557</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>85.98948845797281</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275067</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>121.43301413572</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>284.1026125217432</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>199.7821812016451</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20.51621022001177</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>123.7805811116557</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>169.1258655427212</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.92321192564643</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>349.4707848720371</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>232.7107550576121</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>85.1927103982969</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>147.9111926018057</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>80.37871796641375</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,22 +24651,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>21.87414536972213</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>24.62049154535632</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>245.6187101840266</v>
+        <v>199.2140186657857</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>197.2157408858601</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>117.0233846211322</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>248.4224766600096</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,13 +24973,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25131,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>80.18405517996308</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>17.49548950841404</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>232.8849273727997</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>76.60046205992865</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25371,10 +25371,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>16.6375473211412</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>349.4875273965258</v>
       </c>
       <c r="D38" t="n">
-        <v>129.2226540149255</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25602,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>16.75577602442652</v>
       </c>
       <c r="U40" t="n">
-        <v>226.5550366661093</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>205.2998932193713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>84.43604419707975</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>84.15481688246712</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>198.7692665780071</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>68.79899791830991</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>322.3269054107769</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.6705324754106</v>
+        <v>48.31847529534909</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.7086927898</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927898</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
         <v>231322.0880126061</v>
@@ -26334,25 +26334,25 @@
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="M2" t="n">
         <v>231322.0880126062</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26429,13 +26429,13 @@
         <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
@@ -26444,7 +26444,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="L4" t="n">
         <v>44802.65617556861</v>
@@ -26453,7 +26453,7 @@
         <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
@@ -26484,22 +26484,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50357.5982461801</v>
+        <v>-39361.38868814368</v>
       </c>
       <c r="C6" t="n">
-        <v>30411.83328536762</v>
+        <v>41408.04284340407</v>
       </c>
       <c r="D6" t="n">
-        <v>30411.83328536765</v>
+        <v>41408.0428434041</v>
       </c>
       <c r="E6" t="n">
-        <v>-301626.6340151873</v>
+        <v>-296165.06164395</v>
       </c>
       <c r="F6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="G6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="H6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="I6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="J6" t="n">
-        <v>68159.5974287026</v>
+        <v>73621.16979993995</v>
       </c>
       <c r="K6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="L6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="M6" t="n">
-        <v>23246.17935375077</v>
+        <v>28707.75172498805</v>
       </c>
       <c r="N6" t="n">
-        <v>131219.540027809</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="O6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="P6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="F3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26804,22 +26804,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768964</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,43 +32232,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.895655249223</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37314,7 +37314,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37545,7 +37545,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37639,10 +37639,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
